--- a/static/data/python/sample exams/Cooper/Cooper_exam_sample_008.xlsx
+++ b/static/data/python/sample exams/Cooper/Cooper_exam_sample_008.xlsx
@@ -31,336 +31,336 @@
     <t>System</t>
   </si>
   <si>
-    <t>(295016AK3.04) Knowledge of the reasons for the following responses or actions as they apply to (APE 16) CONTROL ROOM ABANDONMENT: (CFR: 41.5 / 45.6) Abandonment criteria</t>
-  </si>
-  <si>
-    <t>(295037EK1.04) Knowledge of the operational implications and/or cause and effect relationships of the following concepts as they apply to the (EPE 14) SCRAM CONDITION PRESENT AND REACTOR POWER ABOVE APRM DOWNSCALE OR UNKNOWN: (CFR: 41.8 to 41.10) Hot shutdown boron weight</t>
-  </si>
-  <si>
-    <t>(295026EK2.11) Knowledge of the relationship between the (EPE 3) SUPPRESSION POOL HIGH WATER TEMPERATURE and the following systems or components: (CFR: 41.7 / 45.8) Safety/relief valves</t>
-  </si>
-  <si>
-    <t>(295038EA2.06) Ability to determine and/or interpret the following as they apply to (EPE 15) HIGH OFFSITE RADIOACTIVITY RELEASE RATE: (CFR: 41.10 / 43.5 / 45.13) Meteorological data</t>
-  </si>
-  <si>
-    <t>(700000) (APE 25) GENERATOR VOLTAGE AND ELECTRIC GRID DISTURBANCES (G2.3.12) RADIATION CONTROL Knowledge of radiological safety principles and procedures pertaining to licensed operator duties, such as response to radiation monitor alarms, containment entry requirements, fuel handling responsibilities, access to locked high-radiation areas, or alignment of filters (CFR: 41.12 / 43.4 / 45.9 / 45.10)</t>
-  </si>
-  <si>
-    <t>(295019AA1.01) Ability to operate and/or monitor the following as they apply to (APE 19) PARTIAL OR COMPLETE LOSS OF INSTRUMENT AIR: (CFR: 41.7 / 45.6) Backup air supply</t>
-  </si>
-  <si>
-    <t>(295021AK3.03) Knowledge of the reasons for the following responses or actions as they apply to (APE 21) LOSS OF SHUTDOWN COOLING: (CFR: 41.5 / 45.6) Increasing drywell cooling</t>
+    <t>(295016) (APE 16) CONTROL ROOM ABANDONMENT (G2.2.44) EQUIPMENT CONTROL Ability to interpret control room indications to verify the status and operation of a system and understand how operator actions and directives affect plant and system conditions (CFR: 41.5 / 43.5 / 45.12)</t>
+  </si>
+  <si>
+    <t>(295031EK2.09) Knowledge of the relationship between the (EPE 8) REACTOR LOW WATER LEVEL and the following systems or components: (CFR: 41.7 / 45.8) Recirculation system</t>
+  </si>
+  <si>
+    <t>(295023AA1.03) Ability to operate and/or monitor the following as they apply to (APE 23) REFUELING ACCIDENTS: (CFR: 41.7 / 45.6) Fuel handling equipment</t>
+  </si>
+  <si>
+    <t>(295018AK3.03) Knowledge of the reasons for the following responses or actions as they apply to (APE 18) PARTIAL OR COMPLETE LOSS OF COMPONENT COOLING WATER (CCW): (CFR: 41.5 / 45.6) Securing individual components (preventing equipment damage)</t>
+  </si>
+  <si>
+    <t>(295004AA2.03) Ability to determine and/or interpret the following as they apply to (APE 4) PARTIAL OR COMPLETE LOSS OF DC POWER: (CFR: 41.10 / 43.5 / 45.13) Battery parameters</t>
   </si>
   <si>
     <t>(295005AK1.01) Knowledge of the operational implications and/or cause and effect relationships of the following concepts as they apply to the (APE 5) MAIN TURBINE GENERATOR TRIP:(CFR: 41.8 to 41.10) Reactor pressure control</t>
   </si>
   <si>
-    <t>(295003AK2.01) Knowledge of the relationship between the (APE 3) PARTIAL OR COMPLETE LOSS OF AC POWER and the following systems or components: (CFR: 41.7 / 45.8) Station batteries</t>
-  </si>
-  <si>
-    <t>(295001AA2.10) Ability to determine and/or interpret the following as they apply to (APE 1) PARTIAL OR COMPLETE LOSS OF FORCED CORE FLOW CIRCULATION: (CFR: 41.10 / 43.5 / 45.13) Recirculation system/RPV differential temperatures</t>
-  </si>
-  <si>
-    <t>(295024) (EPE 1) HIGH DRYWELL PRESSURE (G2.4.30) EMERGENCY PROCEDURES / PLAN Knowledge of events related to system operation/status that must be reported to internal organizations or external agencies, such as the State, the NRC, or the transmission system operator (CFR: 41.10 / 43.5 / 45.11)</t>
-  </si>
-  <si>
-    <t>(295031EA1.10) Ability to operate and/or monitor the following as they apply to (EPE 8) REACTOR LOW WATER LEVEL: (CFR: 41.7 / 45.6) Control rod drive hydraulic system</t>
-  </si>
-  <si>
-    <t>(295006AK3.02) Knowledge of the reasons for the following responses or actions as they apply to (APE 6) SCRAM: (CFR: 41.5 / 45.6) Reactor power response</t>
-  </si>
-  <si>
-    <t>(600000AK1.02) Knowledge of the operational implications and/or cause and effect relationships of the following concepts as they apply to the (APE 24) PLANT FIRE ON SITE: (CFR: 41.8 / 41.10 / 45.3) Firefighting methods for each type of fire</t>
-  </si>
-  <si>
-    <t>(295004AK2.03) Knowledge of the relationship between the (APE 4) PARTIAL OR COMPLETE LOSS OF DC POWER and the following systems or components: (CFR: 41.7 / 45.8) DC electrical loads</t>
-  </si>
-  <si>
-    <t>(295025EA2.01) Ability to determine and/or interpret the following as they apply to (EPE 2) HIGH REACTOR PRESSURE: (CFR: 41.10 / 43.5 / 45.13) Reactor pressure</t>
-  </si>
-  <si>
-    <t>(295023) (APE 23) REFUELING ACCIDENTS (G2.1.32) CONDUCT OF OPERATIONS Ability to explain and apply system precautions, limitations, notes, or cautions (CFR: 41.10 / 43.2 / 45.12)</t>
-  </si>
-  <si>
-    <t>(295027EA1.02) Ability to operate and/or monitor the following as they apply to (EPE 4) HIGH CONTAINMENT TEMPERATURE (MARK III CONTAINMENT ONLY): (CFR: 41.7 / 45.6) Containment ventilation/cooling</t>
-  </si>
-  <si>
-    <t>(295018AK3.07) Knowledge of the reasons for the following responses or actions as they apply to (APE 18) PARTIAL OR COMPLETE LOSS OF COMPONENT COOLING WATER (CCW): (CFR: 41.5 / 45.6) Cross-connecting with backup systems</t>
-  </si>
-  <si>
-    <t>(295030EK1.02) Knowledge of the operational implications and/or cause and effect relationships of the following concepts as they apply to the (EPE 7) LOW SUPPRESSION POOL WATER LEVEL: (CFR: 41.8 to 41.10) Pump NPSH</t>
-  </si>
-  <si>
-    <t>(295035EA2.02) Ability to determine and/or interpret the following as they apply to (EPE 12) SECONDARY CONTAINMENT HIGH DIFFERENTIAL PRESSURE: (CFR: 41.8 to 41.10) Radiation release rate</t>
-  </si>
-  <si>
-    <t>(295007) (APE 7) HIGH REACTOR PRESSURE (G2.1.20) CONDUCT OF OPERATIONS Ability to interpret and execute procedure steps (CFR: 41.10 / 43.5 / 45.12)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(500000EA1.01) Ability to operate and/or monitor the following as they apply to (EPE 16) HIGH CONTAINMENT HYDROGEN CONCENTRATION: (CFR: 41.7 / 45.6) Primary containment hydrogen instrumentation </t>
-  </si>
-  <si>
-    <t>(295014AK3.01) Knowledge of the reasons for the following responses or actions as they apply to (APE 14) INADVERTENT REACTIVITY ADDITION: (CFR: 41.5 / 45.6) Reactor SCRAM</t>
-  </si>
-  <si>
-    <t>(295022AK1.01) Knowledge of the operational implications and/or cause and effect relationships of the following concepts as they apply to the (APE 22) LOSS OF CONTROL ROD DRIVE PUMPS: (CFR: 41.8 to 41.10) Reactor pressure vs. rod insertion capability</t>
+    <t>(295001) (APE 1) PARTIAL OR COMPLETE LOSS OF FORCED CORE FLOW CIRCULATION (G2.1.31) CONDUCT OF OPERATIONS Ability to locate control room switches, controls, and indications, and to determine that they correctly reflect the desired plant lineup (CFR: 41.10 / 45.12)</t>
+  </si>
+  <si>
+    <t>(295019AK2.01) Knowledge of the relationship between the (APE 19) PARTIAL OR COMPLETE LOSS OF INSTRUMENT AIR and the following systems or components: (CFR: 41.7 / 45.8) CRD hydraulics</t>
+  </si>
+  <si>
+    <t>(295026EA1.09) Ability to operate and/or monitor the following as they apply to (EPE 3) SUPPRESSION POOL HIGH WATER TEMPERATURE: (CFR: 41.7 / 45.6) Safety/relief valves</t>
+  </si>
+  <si>
+    <t>(600000AK3.02) Knowledge of the reasons for the following responses or actions as they apply to (APE 24) PLANT FIRE ON SITE: (CFR: 41.5 / 41.10 / 45.6 / 45.13) Steps called out in the site fire protection plant, fire protection system manual, and fire zone manual</t>
+  </si>
+  <si>
+    <t>(295027EA2.03) Ability to determine and/or interpret the following as they apply to (EPE 4) HIGH CONTAINMENT TEMPERATURE (MARK III CONTAINMENT ONLY): (CFR: 41.10 / 43.5 / 45.13) Reactor pressure</t>
+  </si>
+  <si>
+    <t>(295025EK1.04) Knowledge of the operational implications and/or cause and effect relationships of the following concepts as they apply to the (EPE 2) HIGH REACTOR PRESSURE: (CFR: 41.8 to 41.10) Decay heat</t>
+  </si>
+  <si>
+    <t>(295030) (EPE 7) LOW SUPPRESSION POOL WATER LEVEL (G2.1.28) CONDUCT OF OPERATIONS Knowledge of the purpose and function of major system components and controls (CFR: 41.7)</t>
+  </si>
+  <si>
+    <t>(295003AK2.02) Knowledge of the relationship between the (APE 3) PARTIAL OR COMPLETE LOSS OF AC POWER and the following systems or components: (CFR: 41.7 / 45.8) Emergency generators</t>
+  </si>
+  <si>
+    <t>(295037EA1.15) Ability to operate and/or monitor the following as they apply to (EPE 14) SCRAM CONDITION PRESENT AND REACTOR POWER ABOVE APRM DOWNSCALE OR UNKNOWN: (CFR: 41.7 / 45.5 to 45.8) SRVs</t>
+  </si>
+  <si>
+    <t>(295038EK3.04) Knowledge of the reasons for the following responses or actions as they apply to (EPE 15) HIGH OFFSITE RADIOACTIVITY RELEASE RATE: (CFR: 41.5 / 45.6) Emergency depressurization</t>
+  </si>
+  <si>
+    <t>(295021AA2.02) Ability to determine and/or interpret the following as they apply to (APE 21) LOSS OF SHUTDOWN COOLING: (CFR: 41.10 / 43.5 / 45.13) RHR/shutdown cooling system flow</t>
+  </si>
+  <si>
+    <t>(700000AK1.02) Knowledge of the operational implications and/or cause and effect relationships of the following concepts as they apply to the (APE 25) GENERATOR VOLTAGE AND ELECTRIC GRID DISTURBANCES: (CFR: 41.4 / 41.5 / 41.7 / 41.10 / 45.8) Over-excitation</t>
+  </si>
+  <si>
+    <t>(295006) (APE 6) SCRAM (G2.1.32) CONDUCT OF OPERATIONS Ability to explain and apply system precautions, limitations, notes, or cautions (CFR: 41.10 / 43.2 / 45.12)</t>
+  </si>
+  <si>
+    <t>(295024EK2.14) Knowledge of the relationship between the (EPE 1) HIGH DRYWELL PRESSURE and the following systems or components: (CFR: 41.7 / 45.8) Containment (Mark III)</t>
+  </si>
+  <si>
+    <t>(295011AK3.01) Knowledge of the reasons for the following responses or actions as they apply to (APE 11) HIGH CONTAINMENT TEMPERATURE (MARK III CONTAINMENT ONLY): (CFR: 41.5 / 45.6) Increased containment cooling</t>
+  </si>
+  <si>
+    <t>(295033EA2.03) Ability to determine and/or interpret the following as they apply to (EPE 10) HIGH SECONDARY CONTAINMENT AREA RADIATION LEVELS: (CFR: 41.10 / 43.5 / 45.13) Source of high area radiation</t>
+  </si>
+  <si>
+    <t>(295034EK1.02) Knowledge of the operational implications and/or cause and effect relationships of the following concepts as they apply to the (EPE 11) SECONDARY CONTAINMENT VENTILATION HIGH RADIATION: (CFR: 41.8 to 41.10) Radiation releases</t>
+  </si>
+  <si>
+    <t>(295010) (APE 10) HIGH DRYWELL PRESSURE (G2.2.20) EQUIPMENT CONTROL Knowledge of the process for managing troubleshooting activities (CFR: 41.10 / 43.5 / 45.13)</t>
   </si>
   <si>
     <t>(295032EK2.05) Knowledge of the relationship between the (EPE 9) HIGH SECONDARY CONTAINMENT AREA TEMPERATURE and the following systems or components: (CFR: 41.7 / 45.8) Temperature sensitive instrumentation</t>
   </si>
   <si>
-    <t>(259002A1.09) Ability to predict and/or monitor changes in parameters associated with operation of the (SF2 RWLCS) REACTOR WATER LEVEL CONTROL SYSTEM including: (CFR: 41.5 / 45.5) Lights and alarms</t>
-  </si>
-  <si>
-    <t>(205000A2.09) Ability to (a) predict the impacts of the following on the (SF4 SCS) SHUTDOWN COOLING SYSTEM (RHR SHUTDOWN COOLING MODE) and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 45.6) Reactor low water level</t>
-  </si>
-  <si>
-    <t>(203000K5.02) Knowledge of the operational implications or cause and effect relationships of the following concepts as they apply to the (SF2, SF4 RHR/LPCI) RHR/LPCI: INJECTION MODE (BWR 3, 4, 5, 6): (CFR: 41.5 / 45.3) Core cooling methods</t>
-  </si>
-  <si>
-    <t>(510000K2.02) (SF4 SWS*) SERVICE WATER SYSTEM Knowledge of electrical power supplies to the following: (CFR: 41.7) Service water system valves (Class 1E)</t>
-  </si>
-  <si>
-    <t>(223002K1.05) Knowledge of the physical connections and/or cause and effect relationships between the (SF5 PCIS) PRIMARY CONTAINMENT ISOLATION SYSTEM / NUCLEAR STEAM SUPPLY SHUTOFF and the following systems: (CFR: 41.2 to 41.9 / 45.7 / 45.8) Isolation condenser (Nine Mile Point 1, Dresden)</t>
-  </si>
-  <si>
-    <t>(264000K6.03) Knowledge of the effect of the following plant conditions, system malfunctions, or component malfunctions on the (SF6 EGE) EMERGENCY GENERATORS (DIESEL/JET): (CFR: 41.7 / 45.7) Lube oil components</t>
-  </si>
-  <si>
-    <t>(239002K3.01) Knowledge of the effect that a loss or malfunction of the (SF3 SRV) SAFETY RELIEF VALVES will have on the following systems or system parameters: (CFR: 41.7 / 45.4) Reactor pressure control</t>
-  </si>
-  <si>
-    <t>(215004A4.04) Ability to manually operate and/or monitor the (SF7 SRMS) SOURCE RANGE MONITOR SYSTEM in the control room: (CFR: 41.7 / 45.5 to 45.8) SRMS drive control switches</t>
-  </si>
-  <si>
-    <t>(215005K4.01) Knowledge of (SF7 PRMS) AVERAGE POWER RANGE MONITOR/LOCAL POWER RANGE MONITOR design features and/or interlocks that provide for the following: (CFR: 41.7) Rod withdrawal blocks</t>
-  </si>
-  <si>
-    <t>(261000A3.01) Ability to monitor automatic operation of the (SF9 SGTS) STANDBY GAS TREATMENT SYSTEM including: (CFR: 41.7 / 45.7) System flow</t>
-  </si>
-  <si>
-    <t>(262001) (SF6 AC) AC ELECTRICAL DISTRIBUTION (G2.4.34) EMERGENCY PROCEDURES / PLAN Knowledge of RO responsibilities outside the main control room during an emergency (CFR: 41.10 / 43.5 / 45.13)</t>
-  </si>
-  <si>
-    <t>(212000A1.08) Ability to predict and/or monitor changes in parameters associated with operation of the (SF7 RPS) REACTOR PROTECTION SYSTEM including: (CFR: 41.5 / 45.5) Valve position</t>
+    <t>(295012AA1.01) Ability to operate and/or monitor the following as they apply to (APE 12) HIGH DRYWELL TEMPERATURE: (CFR: 41.7 / 45.6) Drywell ventilation system</t>
+  </si>
+  <si>
+    <t>(223002K3.25) Knowledge of the effect that a loss or malfunction of the (SF5 PCIS) PRIMARY CONTAINMENT ISOLATION SYSTEM / NUCLEAR STEAM SUPPLY SHUTOFF will have on the following systems or system parameters: (CFR: 41.7 / 45.4) Component cooling water systems</t>
+  </si>
+  <si>
+    <t>(218000K1.03) Knowledge of the physical connections and/or cause and effect relationships between the (SF3 ADS) AUTOMATIC DEPRESSURIZATION SYSTEM and the following systems: (CFR: 41.2 to 41.9 / 45.7 / 45.8) Nuclear boiler instrumentation</t>
+  </si>
+  <si>
+    <t>(215004K4.03) Knowledge of (SF7 SRMS) SOURCE RANGE MONITOR SYSTEM design features and/or interlocks that provide for the following: (CFR: 41.7) Gamma compensation</t>
+  </si>
+  <si>
+    <t>(212000K6.08) Knowledge of the effect of the following plant conditions, system malfunctions, or component malfunctions on the (SF7 RPS) REACTOR PROTECTION SYSTEM : (CFR: 41.7 / 45.7) Main turbine generator and auxiliaries systems</t>
+  </si>
+  <si>
+    <t>(300000K5.15) Knowledge of the operational implications or cause and effect relationships of the following concepts as they apply to the (SF8 IA) INSTRUMENT AIR SYSTEM: (CFR: 41.5 / 45.3) High moisture content in instrument air</t>
+  </si>
+  <si>
+    <t>(211000A4.08) Ability to manually operate and/or monitor the (SF1 SLCS) STANDBY LIQUID CONTROL SYSTEM in the control room: (CFR: 41.7 / 45.5 to 45.8) System initiation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(400000A2.07) Ability to (a) predict the impacts of the following on the (SF8 CCS) COMPONENT COOLING WATER SYSTEM and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) </t>
+  </si>
+  <si>
+    <t>(262002A3.01) Ability to monitor automatic operation of the (SF6 UPS) UNINTERRUPTABLE POWER SUPPLY (AC/DC) including: (CFR: 41.7 / 45.7) Transfer of power sources</t>
+  </si>
+  <si>
+    <t>(215003K2.01) (SF7 IRM) INTERMEDIATE RANGE MONITOR SYSTEM Knowledge of electrical power supplies to the following: (CFR: 41.7) IRM channels/detectors</t>
+  </si>
+  <si>
+    <t>(239002) (SF3 SRV) SAFETY RELIEF VALVES (G2.1.30) CONDUCT OF OPERATIONS Ability to locate and operate components, including local controls (CFR: 41.7 / 45.7)</t>
+  </si>
+  <si>
+    <t>(217000A1.04) Ability to predict and/or monitor changes in parameters associated with operation of the (SF2, SF4 RCIC) REACTOR CORE ISOLATION COOLING SYSTEM (BWR 3, 4, 5, 6) including: (CFR: 41.5 / 45.5) Reactor pressure</t>
+  </si>
+  <si>
+    <t>(203000K3.04) Knowledge of the effect that a loss or malfunction of the (SF2, SF4 RHR/LPCI) RHR/LPCI: INJECTION MODE (BWR 3, 4, 5, 6) will have on the following systems or system parameters: (CFR: 41.7 / 45.4) Adequate core cooling</t>
+  </si>
+  <si>
+    <t>(209001K1.17) Knowledge of the physical connections and/or cause and effect relationships between the (SF2, SF4 LPCS) LOW PRESSURE CORE SPRAY SYSTEM and the following systems: (CFR: 41.2 to 41.9 / 45.7 / 45.8) Standby liquid control</t>
+  </si>
+  <si>
+    <t>(215005K4.05) Knowledge of (SF7 PRMS) AVERAGE POWER RANGE MONITOR/LOCAL POWER RANGE MONITOR design features and/or interlocks that provide for the following: (CFR: 41.7) Alarm seal-in</t>
+  </si>
+  <si>
+    <t>(263000K6.03) Knowledge of the effect of the following plant conditions, system malfunctions, or component malfunctions on the (SF6 DC) DC ELECTRICAL DISTRIBUTION: (CFR: 41.7 / 45.7) Grounds</t>
+  </si>
+  <si>
+    <t>(261000K5.04) Knowledge of the operational implications or cause and effect relationships of the following concepts as they apply to the (SF9 SGTS) STANDBY GAS TREATMENT SYSTEM : (CFR: 41.5 / 45.3) Secondary containment pressure changes</t>
+  </si>
+  <si>
+    <t>(205000A4.06) Ability to manually operate and/or monitor the (SF4 SCS) SHUTDOWN COOLING SYSTEM (RHR SHUTDOWN COOLING MODE) in the control room: (CFR: 41.7 / 45.5 to 45.8) Reactor water level</t>
+  </si>
+  <si>
+    <t>(209002A2.19) Ability to (a) predict the impacts of the following on the (SF2, SF4 HPCS) HIGH PRESSURE CORE SPRAY SYSTEM and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) Abnormal reactor water level</t>
+  </si>
+  <si>
+    <t>(259002A3.01) Ability to monitor automatic operation of the (SF2 RWLCS) REACTOR WATER LEVEL CONTROL SYSTEM including: (CFR: 41.7 / 45.7) Runout flow control</t>
+  </si>
+  <si>
+    <t>(264000K2.01) (SF6 EGE) EMERGENCY GENERATORS (DIESEL/JET) Knowledge of electrical power supplies to the following: (CFR: 41.7) Starting air compressor</t>
+  </si>
+  <si>
+    <t>(510000) (SF4 SWS*) SERVICE WATER SYSTEM (291002K1.13) SENSORS AND DETECTORS (CFR: 41.7) (PRESSURE) Modes of failure</t>
+  </si>
+  <si>
+    <t>(262001A1.08) Ability to predict and/or monitor changes in parameters associated with operation of the (SF6 AC) AC ELECTRICAL DISTRIBUTION including: (CFR: 41.5 / 45.5) System power</t>
+  </si>
+  <si>
+    <t>(223002K3.09) Knowledge of the effect that a loss or malfunction of the (SF5 PCIS) PRIMARY CONTAINMENT ISOLATION SYSTEM / NUCLEAR STEAM SUPPLY SHUTOFF will have on the following systems or system parameters: (CFR: 41.7 / 45.4) Main steam system</t>
+  </si>
+  <si>
+    <t>(218000K1.02) Knowledge of the physical connections and/or cause and effect relationships between the (SF3 ADS) AUTOMATIC DEPRESSURIZATION SYSTEM and the following systems: (CFR: 41.2 to 41.9 / 45.7 / 45.8) LPCS system</t>
+  </si>
+  <si>
+    <t>(215004K4.06) Knowledge of (SF7 SRMS) SOURCE RANGE MONITOR SYSTEM design features and/or interlocks that provide for the following: (CFR: 41.7) IRM/SRMS interlock</t>
+  </si>
+  <si>
+    <t>(212000K6.06) Knowledge of the effect of the following plant conditions, system malfunctions, or component malfunctions on the (SF7 RPS) REACTOR PROTECTION SYSTEM : (CFR: 41.7 / 45.7) Process radiation monitoring system</t>
+  </si>
+  <si>
+    <t>(201003) (SF1 CRDM) CONTROL ROD AND DRIVE MECHANISM (G2.2.22) EQUIPMENT CONTROL Knowledge of limiting conditions for operation and safety limits (CFR: 41.5 / 43.2 / 45.2)</t>
+  </si>
+  <si>
+    <t>(202002A1.01) Ability to predict and/or monitor changes in parameters associated with operation of the (SF1 RSCTL) RECIRCULATION FLOW CONTROL SYSTEM including: (CFR: 41.5 / 45.5) Recirculation pump speed</t>
+  </si>
+  <si>
+    <t>(288000K3.08) Knowledge of the effect that a loss or malfunction of the (SF9 PVS) PLANT VENTILATION SYSTEMS will have on the following systems or system parameters: (CFR: 41.5 / 45.3) Turbine building differential pressure</t>
+  </si>
+  <si>
+    <t>(286000K1.04) Knowledge of the physical connections and/or cause and effect relationships between the (SF8 FPS) FIRE PROTECTION SYSTEM and the following systems: (CFR: 41.2 to 41.9 / 45.7 / 45.8) DC electrical distribution</t>
+  </si>
+  <si>
+    <t>(202001K4.17) Knowledge of (SF1, SF4 RS) RECIRCULATION SYSTEM design features and/or interlocks that provide for the following: (CFR: 41.7) Fast-speed pump start</t>
+  </si>
+  <si>
+    <t>(241000K6.07) Knowledge of the effect of the following plant conditions, system malfunctions, or component malfunctions on the (SF3 RTPRS) REACTOR/TURBINE PRESSURE REGULATING SYSTEM: (CFR: 41.7 / 45.7) Turbine inlet pressure</t>
+  </si>
+  <si>
+    <t>(510001K5.03) Knowledge of the operational implications or cause and effect relationships of the following concepts as they apply to the (SF8 CWS*) CIRCULATING WATER SYSTEM: (CFR: 41.4 / 41.7 / 45.5) Pipe rupture</t>
+  </si>
+  <si>
+    <t>(290003A4.01) Ability to manually operate and/or monitor the (SF9 CRV) CONTROL ROOM VENTILATION in the control room: (CFR: 41.7 / 45.5 to 45.8) Initiate/reset system</t>
+  </si>
+  <si>
+    <t>(234000A2.09) Ability to (a) predict the impacts of the following on the (SF8 FH) FUEL HANDLING and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 45.6) Fuel pool cooling and cleanup system malfunction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(256000A3.04) Ability to monitor automatic operation of the (SF2 CDS) CONDENSATE SYSTEM including: (CFR: 41.7 / 45.7) System flow </t>
+  </si>
+  <si>
+    <t>(216000K2.01) (SF7 NBI) NUCLEAR BOILER INSTRUMENTATION Knowledge of electrical power supplies to the following: (CFR: 41.7) Analog trip system</t>
+  </si>
+  <si>
+    <t>(G2.1.36) CONDUCT OF OPERATIONS Knowledge of procedures and limitations involved in core alterations (CFR: 41.10 / 43.6 / 45.7)</t>
+  </si>
+  <si>
+    <t>(G2.1.29) CONDUCT OF OPERATIONS Knowledge of how to conduct system lineups, such as valves, breakers, or switches (CFR: 41.10 / 45.1 / 45.12)</t>
+  </si>
+  <si>
+    <t>(G2.2.35) EQUIPMENT CONTROL Ability to determine technical specification mode of operation (CFR: 41.7 / 41.10 / 43.2 / 45.13)</t>
+  </si>
+  <si>
+    <t>(G2.2.17) EQUIPMENT CONTROL Knowledge of the process for managing maintenance activities during power operations, such as risk assessments, work prioritization, and coordination with the transmission system operator (CFR: 41.10 / 43.5 / 45.13)</t>
+  </si>
+  <si>
+    <t>(G2.3.12) RADIATION CONTROL Knowledge of radiological safety principles and procedures pertaining to licensed operator duties, such as response to radiation monitor alarms, containment entry requirements, fuel handling responsibilities, access to locked high-radiation areas, or alignment of filters (CFR: 41.12 / 43.4 / 45.9 / 45.10)</t>
+  </si>
+  <si>
+    <t>(G2.4.16) EMERGENCY PROCEDURES / PLAN Knowledge of emergency and abnormal operating procedures implementation hierarchy and coordination with other support procedures or guidelines such as, operating procedures, abnormal operating procedures, or severe accident management guidelines (CFR: 41.10 / 43.5 / 45.13)</t>
+  </si>
+  <si>
+    <t>(292004K1.05) REACTIVITY COEFFICIENTS (CFR: 41.1) Define the fuel temperature (Doppler) coefficient of reactivity</t>
+  </si>
+  <si>
+    <t>(292005K1.04) CONTROL RODS (CFR: 41.1) Predict direction of change in reactor power for a change in control rod position</t>
+  </si>
+  <si>
+    <t>(292008K1.28) REACTOR OPERATIONAL PHYSICS (CFR: 41.1) (NORMAL REACTOR SHUTDOWN) Explain the necessity for inserting control rods in a predetermined sequence during normal shutdown</t>
+  </si>
+  <si>
+    <t>(293004K1.17) THERMODYNAMIC PROCESS (CFR: 41.14) (THROTTLING AND THE THROTTLING PROCESS) Determine the exit conditions for a throttling process based on the use of steam or water</t>
+  </si>
+  <si>
+    <t>(293009K1.22) CORE THERMAL LIMITS (CFR: 41.14) (MCPR) Describe the effects of subcooling on critical power</t>
+  </si>
+  <si>
+    <t>(293007K1.13) HEAT TRANSFER (CFR: 41.14) (CORE THERMAL POWER) Calculate core thermal power using a simplified heat</t>
+  </si>
+  <si>
+    <t>(295016AA2.07) Ability to determine and/or interpret the following as they apply to (APE 16) CONTROL ROOM ABANDONMENT: (CFR: 41.10 / 43.5 / 45.13) Suppression chamber pressure</t>
+  </si>
+  <si>
+    <t>(295031) (EPE 8) REACTOR LOW WATER LEVEL (G2.4.38) EMERGENCY PROCEDURES / PLAN Ability to take actions required by the facility emergency plan implementing procedures, including supporting or acting as emergency coordinator (CFR: 41.10 / 43.5 / 45.11)</t>
+  </si>
+  <si>
+    <t>(295023AA2.05) Ability to determine and/or interpret the following as they apply to (APE 23) REFUELING ACCIDENTS: (CFR: 41.10 / 43.5 / 45.13) Emergency plan implementation</t>
+  </si>
+  <si>
+    <t>(295018) (APE 18) PARTIAL OR COMPLETE LOSS OF COMPONENT COOLING WATER (CCW) (G2.1.47) CONDUCT OF OPERATIONS Ability to direct nonlicensed personnel activities inside the control room (CFR: 41.10 / 43.5 / 45.5 / 45.12 / 45.13)</t>
+  </si>
+  <si>
+    <t>(295004AA2.04) Ability to determine and/or interpret the following as they apply to (APE 4) PARTIAL OR COMPLETE LOSS OF DC POWER: (CFR: 41.10 / 43.5 / 45.13) System lineups</t>
+  </si>
+  <si>
+    <t>(295005) (APE 5) MAIN TURBINE GENERATOR TRIP (G2.1.3) CONDUCT OF OPERATIONS Knowledge of shift or short-term relief turnover practices (CFR: 41.10 / 45.13)</t>
+  </si>
+  <si>
+    <t>(295001AA2.11) Ability to determine and/or interpret the following as they apply to (APE 1) PARTIAL OR COMPLETE LOSS OF FORCED CORE FLOW CIRCULATION: (CFR: 41.10 / 43.5 / 45.13) Individual loop flow(s)</t>
+  </si>
+  <si>
+    <t>(295020AA2.11) Ability to determine and/or interpret the following as they apply to (APE 20) INADVERTENT CONTAINMENT ISOLATION: (CFR: 41.10 / 43.5 / 45.13) RPS status</t>
+  </si>
+  <si>
+    <t>(295007) (APE 7) HIGH REACTOR PRESSURE (G2.3.5) RADIATION CONTROL Ability to use radiation monitoring systems, such as fixed radiation monitors and alarms or personnel monitoring equipment (CFR: 41.11 / 41.12 / 43.4 / 45.9)</t>
+  </si>
+  <si>
+    <t>(500000EA2.04) Ability to determine and/or interpret the following as they apply to (EPE 16) HIGH CONTAINMENT HYDROGEN CONCENTRATION: (CFR: 41.10 / 43.5 / 45.13) Hydrogen concentration limits for wetwell</t>
   </si>
   <si>
     <t>(300000A2.02) Ability to (a) predict the impacts of the following on the (SF8 IA) INSTRUMENT AIR SYSTEM and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 45.6) Component cooling water system malfunction</t>
   </si>
   <si>
-    <t>(211000K5.01) Knowledge of the operational implications or cause and effect relationships of the following concepts as they apply to the (SF1 SLCS) STANDBY LIQUID CONTROL SYSTEM: (CFR: 41.5 / 45.3) Effects of the moderator temperature coefficient of reactivity on boron</t>
-  </si>
-  <si>
-    <t>(217000K2.02) (SF2, SF4 RCIC) REACTOR CORE ISOLATION COOLING SYSTEM (BWR 3, 4, 5, 6) Knowledge of electrical power supplies to the following: (CFR: 41.7) Initiation/isolation logic</t>
-  </si>
-  <si>
-    <t>(263000K1.03) Knowledge of the physical connections and/or cause and effect relationships between the (SF6 DC) DC ELECTRICAL DISTRIBUTION and the following systems: (CFR: 41.2 to 41.9 / 45.7 / 45.8) Plant ventilation systems</t>
-  </si>
-  <si>
-    <t>(218000K6.01) Knowledge of the effect of the following plant conditions, system malfunctions, or component malfunctions on the (SF3 ADS) AUTOMATIC DEPRESSURIZATION SYSTEM: (CFR: 41.7 / 45.7) RHR/LPCI pump running permissive</t>
-  </si>
-  <si>
-    <t>(215003K3.05) Knowledge of the effect that a loss or malfunction of the (SF7 IRM) INTERMEDIATE RANGE MONITOR SYSTEM will have on the following systems or system parameters: (CFR: 41.7 / 45.4) APRM system</t>
-  </si>
-  <si>
-    <t>(209001A4.15) Ability to manually operate and/or monitor the (SF2, SF4 LPCS) LOW PRESSURE CORE SPRAY SYSTEM in the control room: (CFR: 41.7 / 45.5 to 45.8) Initiation reset</t>
-  </si>
-  <si>
-    <t>(262002K4.01) Knowledge of (SF6 UPS) UNINTERRUPTABLE POWER SUPPLY (AC/DC) design features and/or interlocks that provide for the following: (CFR: 41.7) Transfer of power supplies</t>
-  </si>
-  <si>
-    <t>(400000A3.06) Ability to monitor automatic operation of the (SF8 CCS) COMPONENT COOLING WATER SYSTEM including: (CFR: 41.7 / 45.7) System response due to a LOOP signal</t>
-  </si>
-  <si>
-    <t>(209002) (SF2, SF4 HPCS) HIGH PRESSURE CORE SPRAY SYSTEM  (291004K1.25) PUMPS (CFR: 41.3) (POSITIVE DISPLACEMENT) Safety procedures and precautions associated with positive displacement pumps</t>
-  </si>
-  <si>
-    <t>(259002A1.08) Ability to predict and/or monitor changes in parameters associated with operation of the (SF2 RWLCS) REACTOR WATER LEVEL CONTROL SYSTEM including: (CFR: 41.5 / 45.5) Main steam flow</t>
-  </si>
-  <si>
-    <t>(205000A2.05) Ability to (a) predict the impacts of the following on the (SF4 SCS) SHUTDOWN COOLING SYSTEM (RHR SHUTDOWN COOLING MODE) and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 45.6) System isolation</t>
-  </si>
-  <si>
-    <t>(203000K5.03) Knowledge of the operational implications or cause and effect relationships of the following concepts as they apply to the (SF2, SF4 RHR/LPCI) RHR/LPCI: INJECTION MODE (BWR 3, 4, 5, 6): (CFR: 41.5 / 45.3) Vortex limits</t>
-  </si>
-  <si>
-    <t>(510000K2.01) (SF4 SWS*) SERVICE WATER SYSTEM Knowledge of electrical power supplies to the following: (CFR: 41.7) Service water system pumps (Class 1E)</t>
-  </si>
-  <si>
-    <t>(288000A3.02) Ability to monitor automatic operation of the (SF9 PVS) PLANT VENTILATION SYSTEMS including: (CFR: 41.7 / 45.7) Differential pressure control</t>
-  </si>
-  <si>
-    <t>(245000) (SF4 MTGEN) MAIN TURBINE GENERATOR AND AUXILIARY SYSTEMS (G2.4.28) EMERGENCY PROCEDURES / PLAN Knowledge of procedures relating to a security event (ensure that the test item includes no safeguards information) (CFR: 41.10 / 43.5 / 45.13)</t>
-  </si>
-  <si>
-    <t>(510001A1.05) Ability to predict and/or monitor changes in parameters associated with operation of the (SF8 CWS*) CIRCULATING WATER SYSTEM including: (CFR: 41.5 / 45.5) Lights and alarms</t>
-  </si>
-  <si>
-    <t>(233000A2.04) Ability to (a) predict the impacts of the following on the (SF9 FPCCU) FUEL POOL COOLING/CLEANUP and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) Pump trip</t>
-  </si>
-  <si>
-    <t>(201003K5.08) Knowledge of the operational implications or cause and effect relationships of the following concepts as they apply to the (SF1 CRDM) CONTROL ROD AND DRIVE MECHANISM: (CFR: 41.1-6 / 45.1-6) How control rods affect shutdown margin</t>
-  </si>
-  <si>
-    <t>(290001K2.02) (SF5 SC) SECONDARY CONTAINMENT Knowledge of electrical power supplies to the following: (CFR: 41.7) HVAC isolation dampers</t>
-  </si>
-  <si>
-    <t>(290002K1.17) Knowledge of the physical connections and/or cause and effect relationships between the (SF4 RVI) REACTOR VESSEL INTERNALS and the following systems: (CFR: 41.2 to 41.9 / 45.7 / 45.8) Automatic depressurization system</t>
-  </si>
-  <si>
-    <t>(202001K6.09) Knowledge of the effect of the following plant conditions, system malfunctions, or component malfunctions on the (SF1, SF4 RS) RECIRCULATION SYSTEM: (CFR: 41.7 / 45.7) Reactor water level</t>
-  </si>
-  <si>
-    <t>(286000K3.03) Knowledge of the effect that a loss or malfunction of the (SF8 FPS) FIRE PROTECTION SYSTEM will have on the following systems or system parameters: (CFR: 41.7 / 45.4) Plant protection</t>
-  </si>
-  <si>
-    <t>(234000A4.02) Ability to manually operate and/or monitor the (SF8 FH) FUEL HANDLING in the control room: (CFR: 41.7 / 45.5 to 45.8) Control rod drive system</t>
-  </si>
-  <si>
-    <t>(201001K4.04) Knowledge of (SF1 CRDH) CRD HYDRAULIC SYSTEM design features and/or interlocks that provide for the following: (CFR: 41.2-3 / 41.6-7 / 41.10 / 41.12 / 45.1-6) Scramming control rods with inoperative SCRAM solenoid valves (backup SCRAM valves)</t>
-  </si>
-  <si>
-    <t>(G2.1.34) CONDUCT OF OPERATIONS Knowledge of RCS or balance of plant chemistry controls, including parameters measured and reasons for the control (CFR: 41.10 / 43.5 / 45.12)</t>
-  </si>
-  <si>
-    <t>(G2.1.17) CONDUCT OF OPERATIONS Ability to make accurate, clear, and concise verbal reports (CFR: 41.10 / 45.12 / 45.13)</t>
-  </si>
-  <si>
-    <t>(G2.2.22) EQUIPMENT CONTROL Knowledge of limiting conditions for operation and safety limits (CFR: 41.5 / 43.2 / 45.2)</t>
-  </si>
-  <si>
-    <t>(G2.2.1) EQUIPMENT CONTROL Ability to perform pre-startup procedures for the facility, including operating those controls associated with plant equipment that could affect reactivity (CFR: 41.5 / 41.10 / 43.5 / 43.6 / 45.1)</t>
-  </si>
-  <si>
-    <t>(G2.3.11) RADIATION CONTROL Ability to control radiation releases (CFR: 41.11 / 43.4 / 45.10)</t>
-  </si>
-  <si>
-    <t>(G2.4.25) EMERGENCY PROCEDURES / PLAN Knowledge of fire protection procedures (CFR: 41.10 / 43.5 / 45.13)</t>
-  </si>
-  <si>
-    <t>(292001K1.04) NEUTRONS (CFR: 41.1) Describe neutron moderation</t>
-  </si>
-  <si>
-    <t>(292004K1.10) REACTIVITY COEFFICIENTS (CFR: 41.1) Define the void coefficient of reactivity</t>
-  </si>
-  <si>
-    <t>(292003K1.05) REACTOR KINETICS AND NEUTRON SOURCES (CFR: 41.1) Define reactor period</t>
-  </si>
-  <si>
-    <t>(293007K1.02) HEAT TRANSFER (CFR: 41.14) (HEAT TRANSFER) Describe thermal conductivity</t>
-  </si>
-  <si>
-    <t>(293004K1.12) THERMODYNAMIC PROCESS (CFR: 41.14) (CONDENSERS) Describe the process of condensate depression (subcooling) and its effect on plant operation</t>
-  </si>
-  <si>
-    <t>(293010K1.02) BRITTLE FRACTURE AND VESSEL THERMAL STRESS (CFR: 41.14) State the definition of nil-ductility transition temperature</t>
-  </si>
-  <si>
-    <t>(295016AA2.02) Ability to determine and/or interpret the following as they apply to (APE 16) CONTROL ROOM ABANDONMENT: (CFR: 41.10 / 43.5 / 45.13) Reactor water level</t>
-  </si>
-  <si>
-    <t>(295037) (EPE 14) SCRAM CONDITION PRESENT AND REACTOR POWER ABOVE APRM DOWNSCALE OR UNKNOWN (G2.4.46) EMERGENCY PROCEDURES / PLAN Ability to verify that the alarms are consistent with the plant conditions (CFR: 41.10 / 43.5 / 45.3 / 45.12)</t>
-  </si>
-  <si>
-    <t>(295026EA2.01) Ability to determine and/or interpret the following as they apply to (EPE 3) SUPPRESSION POOL HIGH WATER TEMPERATURE: (CFR: 41.10 / 43.5 / 45.13) Suppression pool water temperature</t>
-  </si>
-  <si>
-    <t>(295038) (EPE 15) HIGH OFFSITE RADIOACTIVITY RELEASE RATE (G2.3.5) RADIATION CONTROL Ability to use radiation monitoring systems, such as fixed radiation monitors and alarms or personnel monitoring equipment (CFR: 41.11 / 41.12 / 43.4 / 45.9)</t>
-  </si>
-  <si>
-    <t>(700000AA2.06) Ability to determine and/or interpret the following as they apply to (APE 25) GENERATOR VOLTAGE AND ELECTRIC GRID DISTURBANCES: (CFR: 41.5 / 43.5 / 45.5 / 45.7 / 45.8) Generator frequency limitations</t>
-  </si>
-  <si>
-    <t>(295019) (APE 19) PARTIAL OR COMPLETE LOSS OF INSTRUMENT AIR (G2.1.39) CONDUCT OF OPERATIONS Knowledge of conservative decision-making practices (CFR: 41.10 / 43.5 / 45.12)</t>
-  </si>
-  <si>
-    <t>(295021AA2.03) Ability to determine and/or interpret the following as they apply to (APE 21) LOSS OF SHUTDOWN COOLING: (CFR: 41.10 / 43.5 / 45.13) Reactor water level</t>
-  </si>
-  <si>
-    <t>(295009AA2.03) Ability to determine and/or interpret the following as they apply to (APE 9) LOW REACTOR WATER LEVEL: (CFR: 41.10 / 43.5 / 45.13) Reactor water cleanup blowdown rate</t>
-  </si>
-  <si>
-    <t>(295008) (APE 8) HIGH REACTOR WATER LEVEL (G2.4.17) EMERGENCY PROCEDURES / PLAN Knowledge of emergency and abnormal operating procedures terms and definitions (CFR: 41.10 / 45.13)</t>
-  </si>
-  <si>
-    <t>(295010AA2.04) Ability to determine and/or interpret the following as they apply to (APE 10) HIGH DRYWELL PRESSURE: (CFR: 41.10 / 43.5 / 45.13) Drywell humidity</t>
-  </si>
-  <si>
-    <t>(223002A2.14) Ability to (a) predict the impacts of the following on the (SF5 PCIS) PRIMARY CONTAINMENT ISOLATION SYSTEM / NUCLEAR STEAM SUPPLY SHUTOFF and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 45.6) Reactor protection system failures</t>
-  </si>
-  <si>
-    <t>(264000) (SF6 EGE) EMERGENCY GENERATORS (DIESEL/JET) (G2.2.3) EQUIPMENT CONTROL (Multi-unit license) Knowledge of the design, procedural, or operational differences between units (CFR: 41.5 / 41.6 / 41.7 / 41.10 / 45.12)</t>
-  </si>
-  <si>
-    <t>(239002A2.01) Ability to (a) predict the impacts of the following on the (SF3 SRV) SAFETY RELIEF VALVES and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) Stuck-open vacuum breakers</t>
-  </si>
-  <si>
-    <t>(215004) (SF7 SRMS) SOURCE RANGE MONITOR SYSTEM  (G2.1.46) CONDUCT OF OPERATIONS Ability to use integrated control systems to operate plant systems or components (CFR: 41.10/ 45.12 / 45.13)</t>
-  </si>
-  <si>
-    <t>(215005A2.07) Ability to (a) predict the impacts of the following on the (SF7 PRMS) AVERAGE POWER RANGE MONITOR/LOCAL POWER RANGE MONITOR and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) Recirculation flow channels flow mismatch</t>
-  </si>
-  <si>
-    <t>(202002) (SF1 RSCTL) RECIRCULATION FLOW CONTROL SYSTEM (G2.2.15) EQUIPMENT CONTROL Ability to determine the expected plant configuration using design and configuration control documentation, such as drawings, lineups or, tagouts (reference potential) (CFR: 41.10 / 43.3 / 45.13)</t>
-  </si>
-  <si>
-    <t>(216000A2.08) Ability to (a) predict the impacts of the following on the (SF7 NBI) NUCLEAR BOILER INSTRUMENTATION and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) Elevated containment temperature</t>
-  </si>
-  <si>
-    <t>(259001) (SF2 FWS) FEEDWATER SYSTEM (G2.2.5) EQUIPMENT CONTROL Knowledge of the process for making design or operating changes to the facility, such as 10 CFR 50.59, “Changes, Tests and Experiments,” screening and evaluation processes, administrative processes for temporary modifications, disabling annunciators, or installation of temporary equipment (CFR: 41.10 / 43.3 / 45.13)</t>
-  </si>
-  <si>
-    <t>(G2.1.7) CONDUCT OF OPERATIONS Ability to evaluate plant performance and make operational judgments based on operating characteristics, reactor behavior, and instrument interpretation (CFR: 41.5 / 43.5 / 45.12 / 45.13)</t>
-  </si>
-  <si>
-    <t>(G2.1.36) CONDUCT OF OPERATIONS Knowledge of procedures and limitations involved in core alterations (CFR: 41.10 / 43.6 / 45.7)</t>
+    <t>(211000) (SF1 SLCS) STANDBY LIQUID CONTROL SYSTEM (G2.4.19) EMERGENCY PROCEDURES / PLAN Knowledge of emergency and abnormal operating procedures layout, symbols, and icons (CFR: 41.10 / 45.13)</t>
+  </si>
+  <si>
+    <t>(400000A2.15) Ability to (a) predict the impacts of the following on the (SF8 CCS) COMPONENT COOLING WATER SYSTEM and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) Loss of cooling to turbine lube oil system</t>
+  </si>
+  <si>
+    <t>(262002) (SF6 UPS) UNINTERRUPTABLE POWER SUPPLY (AC/DC) (G2.3.11) RADIATION CONTROL Ability to control radiation releases (CFR: 41.11 / 43.4 / 45.10)</t>
+  </si>
+  <si>
+    <t>(215003A2.07) Ability to (a) predict the impacts of the following on the (SF7 IRM) INTERMEDIATE RANGE MONITOR SYSTEM and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) Failed recorder</t>
+  </si>
+  <si>
+    <t>(223001) (SF5 PCS) PRIMARY CONTAINMENT SYSTEM AND AUXILIARIES (G2.4.42) EMERGENCY PROCEDURES / PLAN Knowledge of emergency response facilities (CFR: 41.10 / 45.11)</t>
+  </si>
+  <si>
+    <t>(272000A2.14) Ability to (a) predict the impacts of the following on the (SF7, SF9 RMS) RADIATION MONITORING SYSTEM and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 45.6) Loss of, or inadequate, shielding</t>
+  </si>
+  <si>
+    <t>(290002) (SF4 RVI) REACTOR VESSEL INTERNALS (G2.2.38) EQUIPMENT CONTROL Knowledge of conditions and limitations in the facility license (CFR: 41.7 / 41.10 / 43.1 / 45.13)</t>
+  </si>
+  <si>
+    <t>(G2.1.2) CONDUCT OF OPERATIONS Knowledge of operator responsibilities during any mode of plant operation (CFR: 41.10 / 43.1 / 45.13)</t>
+  </si>
+  <si>
+    <t>(G2.1.1) CONDUCT OF OPERATIONS Knowledge of conduct of operations requirements (CFR: 41.10 / 43.10 / 45.13)</t>
   </si>
   <si>
     <t>(G2.2.12) EQUIPMENT CONTROL Knowledge of surveillance procedures (CFR: 41.10 / 43.2 / 45.13)</t>
   </si>
   <si>
-    <t>(G2.2.45) EQUIPMENT CONTROL Ability to determine or interpret technical specifications with action statements of greater than 1 hour (SRO Only) (CFR: 43.2 / 43.5 / 45.3)</t>
-  </si>
-  <si>
-    <t>(G2.3.6) RADIATION CONTROL Ability to approve liquid or gaseous release permits (CFR: 41.13 / 43.4 / 45.10)</t>
-  </si>
-  <si>
-    <t>(G2.4.41) EMERGENCY PROCEDURES / PLAN: Knowledge of the emergency action level thresholds and classifications (CFR: 41.10 / 43.5 / 45.11).</t>
-  </si>
-  <si>
-    <t>(G2.4.26) EMERGENCY PROCEDURES / PLAN Knowledge of facility protection requirements, including fire brigade and portable firefighting equipment usage (CFR: 41.10 / 43.5 / 45.12)</t>
+    <t>(G2.2.14) EQUIPMENT CONTROL Knowledge of the process for controlling equipment configuration or status (CFR: 41.10 / 43.3 / 45.13)</t>
+  </si>
+  <si>
+    <t>(G2.3.14) RADIATION CONTROL Knowledge of radiation or contamination hazards that may arise during normal, abnormal, or emergency conditions or activities, such as analysis and interpretation of radiation and activity readings as they pertain to administrative, normal, abnormal, and emergency procedures, or analysis and interpretation of coolant activity, including comparison to emergency plan or regulatory limits (SRO Only) (CFR: 43.4 / 45.10)</t>
+  </si>
+  <si>
+    <t>(G2.4.17) EMERGENCY PROCEDURES / PLAN Knowledge of emergency and abnormal operating procedures terms and definitions (CFR: 41.10 / 45.13)</t>
+  </si>
+  <si>
+    <t>(G2.4.21) EMERGENCY PROCEDURES / PLAN Knowledge of the parameters and logic used to assess the status of emergency operating procedures critical safety functions or shutdown critical safety functions (CFR: 41.7 / 43.5 / 45.12)</t>
+  </si>
+  <si>
+    <t>G</t>
+  </si>
+  <si>
+    <t>K2</t>
+  </si>
+  <si>
+    <t>A1</t>
   </si>
   <si>
     <t>K3</t>
   </si>
   <si>
+    <t>A2</t>
+  </si>
+  <si>
     <t>K1</t>
   </si>
   <si>
-    <t>K2</t>
-  </si>
-  <si>
-    <t>A2</t>
-  </si>
-  <si>
-    <t>G</t>
-  </si>
-  <si>
-    <t>A1</t>
+    <t>K4</t>
+  </si>
+  <si>
+    <t>K6</t>
   </si>
   <si>
     <t>K5</t>
   </si>
   <si>
-    <t>K6</t>
-  </si>
-  <si>
     <t>A4</t>
   </si>
   <si>
-    <t>K4</t>
-  </si>
-  <si>
     <t>A3</t>
   </si>
   <si>
@@ -388,64 +388,199 @@
     <t>295016</t>
   </si>
   <si>
+    <t>295031</t>
+  </si>
+  <si>
+    <t>295023</t>
+  </si>
+  <si>
+    <t>295018</t>
+  </si>
+  <si>
+    <t>295004</t>
+  </si>
+  <si>
+    <t>295005</t>
+  </si>
+  <si>
+    <t>295001</t>
+  </si>
+  <si>
+    <t>295019</t>
+  </si>
+  <si>
+    <t>295026</t>
+  </si>
+  <si>
+    <t>600000</t>
+  </si>
+  <si>
+    <t>295027</t>
+  </si>
+  <si>
+    <t>295025</t>
+  </si>
+  <si>
+    <t>295030</t>
+  </si>
+  <si>
+    <t>295003</t>
+  </si>
+  <si>
     <t>295037</t>
   </si>
   <si>
-    <t>295026</t>
-  </si>
-  <si>
     <t>295038</t>
   </si>
   <si>
+    <t>295021</t>
+  </si>
+  <si>
     <t>700000</t>
   </si>
   <si>
-    <t>295019</t>
-  </si>
-  <si>
-    <t>295021</t>
-  </si>
-  <si>
-    <t>295005</t>
-  </si>
-  <si>
-    <t>295003</t>
-  </si>
-  <si>
-    <t>295001</t>
+    <t>295006</t>
   </si>
   <si>
     <t>295024</t>
   </si>
   <si>
-    <t>295031</t>
-  </si>
-  <si>
-    <t>295006</t>
-  </si>
-  <si>
-    <t>600000</t>
-  </si>
-  <si>
-    <t>295004</t>
-  </si>
-  <si>
-    <t>295025</t>
-  </si>
-  <si>
-    <t>295023</t>
-  </si>
-  <si>
-    <t>295027</t>
-  </si>
-  <si>
-    <t>295018</t>
-  </si>
-  <si>
-    <t>295030</t>
-  </si>
-  <si>
-    <t>295035</t>
+    <t>295011</t>
+  </si>
+  <si>
+    <t>295033</t>
+  </si>
+  <si>
+    <t>295034</t>
+  </si>
+  <si>
+    <t>295010</t>
+  </si>
+  <si>
+    <t>295032</t>
+  </si>
+  <si>
+    <t>295012</t>
+  </si>
+  <si>
+    <t>223002</t>
+  </si>
+  <si>
+    <t>218000</t>
+  </si>
+  <si>
+    <t>215004</t>
+  </si>
+  <si>
+    <t>212000</t>
+  </si>
+  <si>
+    <t>300000</t>
+  </si>
+  <si>
+    <t>211000</t>
+  </si>
+  <si>
+    <t>400000</t>
+  </si>
+  <si>
+    <t>262002</t>
+  </si>
+  <si>
+    <t>215003</t>
+  </si>
+  <si>
+    <t>239002</t>
+  </si>
+  <si>
+    <t>217000</t>
+  </si>
+  <si>
+    <t>203000</t>
+  </si>
+  <si>
+    <t>209001</t>
+  </si>
+  <si>
+    <t>215005</t>
+  </si>
+  <si>
+    <t>263000</t>
+  </si>
+  <si>
+    <t>261000</t>
+  </si>
+  <si>
+    <t>205000</t>
+  </si>
+  <si>
+    <t>209002</t>
+  </si>
+  <si>
+    <t>259002</t>
+  </si>
+  <si>
+    <t>264000</t>
+  </si>
+  <si>
+    <t>510000</t>
+  </si>
+  <si>
+    <t>262001</t>
+  </si>
+  <si>
+    <t>201003</t>
+  </si>
+  <si>
+    <t>202002</t>
+  </si>
+  <si>
+    <t>288000</t>
+  </si>
+  <si>
+    <t>286000</t>
+  </si>
+  <si>
+    <t>202001</t>
+  </si>
+  <si>
+    <t>241000</t>
+  </si>
+  <si>
+    <t>510001</t>
+  </si>
+  <si>
+    <t>290003</t>
+  </si>
+  <si>
+    <t>234000</t>
+  </si>
+  <si>
+    <t>256000</t>
+  </si>
+  <si>
+    <t>216000</t>
+  </si>
+  <si>
+    <t>292004</t>
+  </si>
+  <si>
+    <t>292005</t>
+  </si>
+  <si>
+    <t>292008</t>
+  </si>
+  <si>
+    <t>293004</t>
+  </si>
+  <si>
+    <t>293009</t>
+  </si>
+  <si>
+    <t>293007</t>
+  </si>
+  <si>
+    <t>295020</t>
   </si>
   <si>
     <t>295007</t>
@@ -454,148 +589,13 @@
     <t>500000</t>
   </si>
   <si>
-    <t>295014</t>
-  </si>
-  <si>
-    <t>295022</t>
-  </si>
-  <si>
-    <t>295032</t>
-  </si>
-  <si>
-    <t>259002</t>
-  </si>
-  <si>
-    <t>205000</t>
-  </si>
-  <si>
-    <t>203000</t>
-  </si>
-  <si>
-    <t>510000</t>
-  </si>
-  <si>
-    <t>223002</t>
-  </si>
-  <si>
-    <t>264000</t>
-  </si>
-  <si>
-    <t>239002</t>
-  </si>
-  <si>
-    <t>215004</t>
-  </si>
-  <si>
-    <t>215005</t>
-  </si>
-  <si>
-    <t>261000</t>
-  </si>
-  <si>
-    <t>262001</t>
-  </si>
-  <si>
-    <t>212000</t>
-  </si>
-  <si>
-    <t>300000</t>
-  </si>
-  <si>
-    <t>211000</t>
-  </si>
-  <si>
-    <t>217000</t>
-  </si>
-  <si>
-    <t>263000</t>
-  </si>
-  <si>
-    <t>218000</t>
-  </si>
-  <si>
-    <t>215003</t>
-  </si>
-  <si>
-    <t>209001</t>
-  </si>
-  <si>
-    <t>262002</t>
-  </si>
-  <si>
-    <t>400000</t>
-  </si>
-  <si>
-    <t>209002</t>
-  </si>
-  <si>
-    <t>288000</t>
-  </si>
-  <si>
-    <t>245000</t>
-  </si>
-  <si>
-    <t>510001</t>
-  </si>
-  <si>
-    <t>233000</t>
-  </si>
-  <si>
-    <t>201003</t>
-  </si>
-  <si>
-    <t>290001</t>
+    <t>223001</t>
+  </si>
+  <si>
+    <t>272000</t>
   </si>
   <si>
     <t>290002</t>
-  </si>
-  <si>
-    <t>202001</t>
-  </si>
-  <si>
-    <t>286000</t>
-  </si>
-  <si>
-    <t>234000</t>
-  </si>
-  <si>
-    <t>201001</t>
-  </si>
-  <si>
-    <t>292001</t>
-  </si>
-  <si>
-    <t>292004</t>
-  </si>
-  <si>
-    <t>292003</t>
-  </si>
-  <si>
-    <t>293007</t>
-  </si>
-  <si>
-    <t>293004</t>
-  </si>
-  <si>
-    <t>293010</t>
-  </si>
-  <si>
-    <t>295009</t>
-  </si>
-  <si>
-    <t>295008</t>
-  </si>
-  <si>
-    <t>295010</t>
-  </si>
-  <si>
-    <t>202002</t>
-  </si>
-  <si>
-    <t>216000</t>
-  </si>
-  <si>
-    <t>259001</t>
   </si>
 </sst>
 </file>
@@ -984,7 +984,7 @@
         <v>5</v>
       </c>
       <c r="C2">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="D2" t="s">
         <v>105</v>
@@ -1001,7 +1001,7 @@
         <v>6</v>
       </c>
       <c r="C3">
-        <v>3.7</v>
+        <v>3.5</v>
       </c>
       <c r="D3" t="s">
         <v>106</v>
@@ -1018,7 +1018,7 @@
         <v>7</v>
       </c>
       <c r="C4">
-        <v>3.9</v>
+        <v>3.1</v>
       </c>
       <c r="D4" t="s">
         <v>107</v>
@@ -1035,7 +1035,7 @@
         <v>8</v>
       </c>
       <c r="C5">
-        <v>3.7</v>
+        <v>3.3</v>
       </c>
       <c r="D5" t="s">
         <v>108</v>
@@ -1052,7 +1052,7 @@
         <v>9</v>
       </c>
       <c r="C6">
-        <v>3.2</v>
+        <v>3.8</v>
       </c>
       <c r="D6" t="s">
         <v>109</v>
@@ -1069,7 +1069,7 @@
         <v>10</v>
       </c>
       <c r="C7">
-        <v>3.4</v>
+        <v>4.3</v>
       </c>
       <c r="D7" t="s">
         <v>110</v>
@@ -1086,7 +1086,7 @@
         <v>11</v>
       </c>
       <c r="C8">
-        <v>2.9</v>
+        <v>4.6</v>
       </c>
       <c r="D8" t="s">
         <v>105</v>
@@ -1103,7 +1103,7 @@
         <v>12</v>
       </c>
       <c r="C9">
-        <v>4.3</v>
+        <v>4</v>
       </c>
       <c r="D9" t="s">
         <v>106</v>
@@ -1120,7 +1120,7 @@
         <v>13</v>
       </c>
       <c r="C10">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="D10" t="s">
         <v>107</v>
@@ -1137,7 +1137,7 @@
         <v>14</v>
       </c>
       <c r="C11">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="D11" t="s">
         <v>108</v>
@@ -1154,7 +1154,7 @@
         <v>15</v>
       </c>
       <c r="C12">
-        <v>2.7</v>
+        <v>4.1</v>
       </c>
       <c r="D12" t="s">
         <v>109</v>
@@ -1171,7 +1171,7 @@
         <v>16</v>
       </c>
       <c r="C13">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="D13" t="s">
         <v>110</v>
@@ -1188,7 +1188,7 @@
         <v>17</v>
       </c>
       <c r="C14">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="D14" t="s">
         <v>105</v>
@@ -1205,7 +1205,7 @@
         <v>18</v>
       </c>
       <c r="C15">
-        <v>3.4</v>
+        <v>4.3</v>
       </c>
       <c r="D15" t="s">
         <v>106</v>
@@ -1222,7 +1222,7 @@
         <v>19</v>
       </c>
       <c r="C16">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="D16" t="s">
         <v>107</v>
@@ -1239,7 +1239,7 @@
         <v>20</v>
       </c>
       <c r="C17">
-        <v>4.7</v>
+        <v>4.1</v>
       </c>
       <c r="D17" t="s">
         <v>108</v>
@@ -1256,7 +1256,7 @@
         <v>21</v>
       </c>
       <c r="C18">
-        <v>3.8</v>
+        <v>4.1</v>
       </c>
       <c r="D18" t="s">
         <v>109</v>
@@ -1273,7 +1273,7 @@
         <v>22</v>
       </c>
       <c r="C19">
-        <v>3.7</v>
+        <v>3.1</v>
       </c>
       <c r="D19" t="s">
         <v>110</v>
@@ -1290,7 +1290,7 @@
         <v>23</v>
       </c>
       <c r="C20">
-        <v>3.1</v>
+        <v>3.8</v>
       </c>
       <c r="D20" t="s">
         <v>105</v>
@@ -1307,7 +1307,7 @@
         <v>24</v>
       </c>
       <c r="C21">
-        <v>3.9</v>
+        <v>4.1</v>
       </c>
       <c r="D21" t="s">
         <v>106</v>
@@ -1324,7 +1324,7 @@
         <v>25</v>
       </c>
       <c r="C22">
-        <v>4.1</v>
+        <v>3.6</v>
       </c>
       <c r="D22" t="s">
         <v>108</v>
@@ -1341,7 +1341,7 @@
         <v>26</v>
       </c>
       <c r="C23">
-        <v>4.6</v>
+        <v>4</v>
       </c>
       <c r="D23" t="s">
         <v>109</v>
@@ -1358,7 +1358,7 @@
         <v>27</v>
       </c>
       <c r="C24">
-        <v>3.7</v>
+        <v>3.9</v>
       </c>
       <c r="D24" t="s">
         <v>110</v>
@@ -1375,7 +1375,7 @@
         <v>28</v>
       </c>
       <c r="C25">
-        <v>4.3</v>
+        <v>2.6</v>
       </c>
       <c r="D25" t="s">
         <v>105</v>
@@ -1392,7 +1392,7 @@
         <v>29</v>
       </c>
       <c r="C26">
-        <v>3.9</v>
+        <v>3.2</v>
       </c>
       <c r="D26" t="s">
         <v>106</v>
@@ -1409,7 +1409,7 @@
         <v>30</v>
       </c>
       <c r="C27">
-        <v>3.2</v>
+        <v>3.7</v>
       </c>
       <c r="D27" t="s">
         <v>107</v>
@@ -1426,10 +1426,10 @@
         <v>31</v>
       </c>
       <c r="C28">
-        <v>3.5</v>
+        <v>2.9</v>
       </c>
       <c r="D28" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="E28" t="s">
         <v>149</v>
@@ -1443,10 +1443,10 @@
         <v>32</v>
       </c>
       <c r="C29">
-        <v>4.1</v>
+        <v>3.9</v>
       </c>
       <c r="D29" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E29" t="s">
         <v>150</v>
@@ -1460,7 +1460,7 @@
         <v>33</v>
       </c>
       <c r="C30">
-        <v>4.2</v>
+        <v>2.7</v>
       </c>
       <c r="D30" t="s">
         <v>111</v>
@@ -1477,10 +1477,10 @@
         <v>34</v>
       </c>
       <c r="C31">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="D31" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="E31" t="s">
         <v>152</v>
@@ -1494,10 +1494,10 @@
         <v>35</v>
       </c>
       <c r="C32">
-        <v>4.1</v>
+        <v>3.1</v>
       </c>
       <c r="D32" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="E32" t="s">
         <v>153</v>
@@ -1511,10 +1511,10 @@
         <v>36</v>
       </c>
       <c r="C33">
-        <v>3.6</v>
+        <v>4.3</v>
       </c>
       <c r="D33" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E33" t="s">
         <v>154</v>
@@ -1528,10 +1528,10 @@
         <v>37</v>
       </c>
       <c r="C34">
-        <v>4.3</v>
+        <v>3.9</v>
       </c>
       <c r="D34" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="E34" t="s">
         <v>155</v>
@@ -1545,10 +1545,10 @@
         <v>38</v>
       </c>
       <c r="C35">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="D35" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E35" t="s">
         <v>156</v>
@@ -1562,10 +1562,10 @@
         <v>39</v>
       </c>
       <c r="C36">
-        <v>3.9</v>
+        <v>3.4</v>
       </c>
       <c r="D36" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="E36" t="s">
         <v>157</v>
@@ -1579,10 +1579,10 @@
         <v>40</v>
       </c>
       <c r="C37">
-        <v>3.6</v>
+        <v>4.4</v>
       </c>
       <c r="D37" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="E37" t="s">
         <v>158</v>
@@ -1596,10 +1596,10 @@
         <v>41</v>
       </c>
       <c r="C38">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="D38" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="E38" t="s">
         <v>159</v>
@@ -1613,10 +1613,10 @@
         <v>42</v>
       </c>
       <c r="C39">
-        <v>3.6</v>
+        <v>4.3</v>
       </c>
       <c r="D39" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="E39" t="s">
         <v>160</v>
@@ -1630,10 +1630,10 @@
         <v>43</v>
       </c>
       <c r="C40">
-        <v>3.4</v>
+        <v>2.7</v>
       </c>
       <c r="D40" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E40" t="s">
         <v>161</v>
@@ -1647,7 +1647,7 @@
         <v>44</v>
       </c>
       <c r="C41">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="D41" t="s">
         <v>111</v>
@@ -1664,10 +1664,10 @@
         <v>45</v>
       </c>
       <c r="C42">
-        <v>3.7</v>
+        <v>3</v>
       </c>
       <c r="D42" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="E42" t="s">
         <v>163</v>
@@ -1681,10 +1681,10 @@
         <v>46</v>
       </c>
       <c r="C43">
-        <v>2.8</v>
+        <v>3.4</v>
       </c>
       <c r="D43" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="E43" t="s">
         <v>164</v>
@@ -1698,10 +1698,10 @@
         <v>47</v>
       </c>
       <c r="C44">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="D44" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E44" t="s">
         <v>165</v>
@@ -1715,10 +1715,10 @@
         <v>48</v>
       </c>
       <c r="C45">
-        <v>3.4</v>
+        <v>4.1</v>
       </c>
       <c r="D45" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="E45" t="s">
         <v>166</v>
@@ -1732,10 +1732,10 @@
         <v>49</v>
       </c>
       <c r="C46">
-        <v>3.6</v>
+        <v>3.1</v>
       </c>
       <c r="D46" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E46" t="s">
         <v>167</v>
@@ -1749,10 +1749,10 @@
         <v>50</v>
       </c>
       <c r="C47">
-        <v>3.5</v>
+        <v>2.8</v>
       </c>
       <c r="D47" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="E47" t="s">
         <v>168</v>
@@ -1766,10 +1766,10 @@
         <v>51</v>
       </c>
       <c r="C48">
-        <v>3.7</v>
+        <v>3.1</v>
       </c>
       <c r="D48" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E48" t="s">
         <v>169</v>
@@ -1783,10 +1783,10 @@
         <v>52</v>
       </c>
       <c r="C49">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="D49" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
       <c r="E49" t="s">
         <v>170</v>
@@ -1800,10 +1800,10 @@
         <v>53</v>
       </c>
       <c r="C50">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="D50" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="E50" t="s">
         <v>149</v>
@@ -1817,10 +1817,10 @@
         <v>54</v>
       </c>
       <c r="C51">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="D51" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E51" t="s">
         <v>150</v>
@@ -1834,7 +1834,7 @@
         <v>55</v>
       </c>
       <c r="C52">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="D52" t="s">
         <v>111</v>
@@ -1851,10 +1851,10 @@
         <v>56</v>
       </c>
       <c r="C53">
-        <v>3.7</v>
+        <v>3</v>
       </c>
       <c r="D53" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="E53" t="s">
         <v>152</v>
@@ -1868,10 +1868,10 @@
         <v>57</v>
       </c>
       <c r="C54">
-        <v>3.3</v>
+        <v>4</v>
       </c>
       <c r="D54" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="E54" t="s">
         <v>171</v>
@@ -1885,10 +1885,10 @@
         <v>58</v>
       </c>
       <c r="C55">
-        <v>3.2</v>
+        <v>3.9</v>
       </c>
       <c r="D55" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="E55" t="s">
         <v>172</v>
@@ -1902,10 +1902,10 @@
         <v>59</v>
       </c>
       <c r="C56">
-        <v>3.1</v>
+        <v>2.6</v>
       </c>
       <c r="D56" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="E56" t="s">
         <v>173</v>
@@ -1919,10 +1919,10 @@
         <v>60</v>
       </c>
       <c r="C57">
-        <v>3.6</v>
+        <v>2.8</v>
       </c>
       <c r="D57" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E57" t="s">
         <v>174</v>
@@ -1936,7 +1936,7 @@
         <v>61</v>
       </c>
       <c r="C58">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="D58" t="s">
         <v>111</v>
@@ -1953,10 +1953,10 @@
         <v>62</v>
       </c>
       <c r="C59">
-        <v>2.8</v>
+        <v>3.3</v>
       </c>
       <c r="D59" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="E59" t="s">
         <v>176</v>
@@ -1970,10 +1970,10 @@
         <v>63</v>
       </c>
       <c r="C60">
-        <v>3.9</v>
+        <v>3.3</v>
       </c>
       <c r="D60" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="E60" t="s">
         <v>177</v>
@@ -1987,10 +1987,10 @@
         <v>64</v>
       </c>
       <c r="C61">
-        <v>3.7</v>
+        <v>3.8</v>
       </c>
       <c r="D61" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E61" t="s">
         <v>178</v>
@@ -2004,10 +2004,10 @@
         <v>65</v>
       </c>
       <c r="C62">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="D62" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="E62" t="s">
         <v>179</v>
@@ -2021,10 +2021,10 @@
         <v>66</v>
       </c>
       <c r="C63">
-        <v>3.9</v>
+        <v>3.5</v>
       </c>
       <c r="D63" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E63" t="s">
         <v>180</v>
@@ -2038,10 +2038,10 @@
         <v>67</v>
       </c>
       <c r="C64">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="D64" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="E64" t="s">
         <v>181</v>
@@ -2055,7 +2055,7 @@
         <v>68</v>
       </c>
       <c r="C65">
-        <v>2.7</v>
+        <v>3</v>
       </c>
       <c r="D65" t="s">
         <v>117</v>
@@ -2072,7 +2072,7 @@
         <v>69</v>
       </c>
       <c r="C66">
-        <v>3.9</v>
+        <v>4.1</v>
       </c>
       <c r="D66" t="s">
         <v>117</v>
@@ -2089,7 +2089,7 @@
         <v>70</v>
       </c>
       <c r="C67">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="D67" t="s">
         <v>118</v>
@@ -2106,7 +2106,7 @@
         <v>71</v>
       </c>
       <c r="C68">
-        <v>4.5</v>
+        <v>2.6</v>
       </c>
       <c r="D68" t="s">
         <v>118</v>
@@ -2123,7 +2123,7 @@
         <v>72</v>
       </c>
       <c r="C69">
-        <v>3.8</v>
+        <v>3.2</v>
       </c>
       <c r="D69" t="s">
         <v>119</v>
@@ -2140,7 +2140,7 @@
         <v>73</v>
       </c>
       <c r="C70">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="D70" t="s">
         <v>120</v>
@@ -2157,7 +2157,7 @@
         <v>74</v>
       </c>
       <c r="C71">
-        <v>3.2</v>
+        <v>2.9</v>
       </c>
       <c r="D71" t="s">
         <v>121</v>
@@ -2174,7 +2174,7 @@
         <v>75</v>
       </c>
       <c r="C72">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="D72" t="s">
         <v>121</v>
@@ -2208,7 +2208,7 @@
         <v>77</v>
       </c>
       <c r="C74">
-        <v>2.6</v>
+        <v>2.8</v>
       </c>
       <c r="D74" t="s">
         <v>122</v>
@@ -2225,7 +2225,7 @@
         <v>78</v>
       </c>
       <c r="C75">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="D75" t="s">
         <v>122</v>
@@ -2242,7 +2242,7 @@
         <v>79</v>
       </c>
       <c r="C76">
-        <v>2.7</v>
+        <v>2.9</v>
       </c>
       <c r="D76" t="s">
         <v>122</v>
@@ -2259,10 +2259,10 @@
         <v>80</v>
       </c>
       <c r="C77">
-        <v>4.2</v>
+        <v>3.4</v>
       </c>
       <c r="D77" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E77" t="s">
         <v>123</v>
@@ -2276,10 +2276,10 @@
         <v>81</v>
       </c>
       <c r="C78">
-        <v>4.2</v>
+        <v>4.4</v>
       </c>
       <c r="D78" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="E78" t="s">
         <v>124</v>
@@ -2293,10 +2293,10 @@
         <v>82</v>
       </c>
       <c r="C79">
-        <v>4</v>
+        <v>4.4</v>
       </c>
       <c r="D79" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E79" t="s">
         <v>125</v>
@@ -2310,10 +2310,10 @@
         <v>83</v>
       </c>
       <c r="C80">
-        <v>2.9</v>
+        <v>3.2</v>
       </c>
       <c r="D80" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="E80" t="s">
         <v>126</v>
@@ -2327,10 +2327,10 @@
         <v>84</v>
       </c>
       <c r="C81">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="D81" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E81" t="s">
         <v>127</v>
@@ -2344,10 +2344,10 @@
         <v>85</v>
       </c>
       <c r="C82">
-        <v>4.3</v>
+        <v>3.9</v>
       </c>
       <c r="D82" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="E82" t="s">
         <v>128</v>
@@ -2361,10 +2361,10 @@
         <v>86</v>
       </c>
       <c r="C83">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="D83" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E83" t="s">
         <v>129</v>
@@ -2378,10 +2378,10 @@
         <v>87</v>
       </c>
       <c r="C84">
-        <v>2.9</v>
+        <v>3.9</v>
       </c>
       <c r="D84" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E84" t="s">
         <v>188</v>
@@ -2395,10 +2395,10 @@
         <v>88</v>
       </c>
       <c r="C85">
-        <v>4.3</v>
+        <v>2.9</v>
       </c>
       <c r="D85" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="E85" t="s">
         <v>189</v>
@@ -2412,10 +2412,10 @@
         <v>89</v>
       </c>
       <c r="C86">
-        <v>2.7</v>
+        <v>3.9</v>
       </c>
       <c r="D86" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E86" t="s">
         <v>190</v>
@@ -2429,10 +2429,10 @@
         <v>90</v>
       </c>
       <c r="C87">
-        <v>4</v>
+        <v>3.2</v>
       </c>
       <c r="D87" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E87" t="s">
         <v>153</v>
@@ -2446,10 +2446,10 @@
         <v>91</v>
       </c>
       <c r="C88">
-        <v>3.9</v>
+        <v>4.1</v>
       </c>
       <c r="D88" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="E88" t="s">
         <v>154</v>
@@ -2463,10 +2463,10 @@
         <v>92</v>
       </c>
       <c r="C89">
-        <v>3.6</v>
+        <v>2.9</v>
       </c>
       <c r="D89" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E89" t="s">
         <v>155</v>
@@ -2480,10 +2480,10 @@
         <v>93</v>
       </c>
       <c r="C90">
-        <v>3.3</v>
+        <v>4.3</v>
       </c>
       <c r="D90" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="E90" t="s">
         <v>156</v>
@@ -2497,10 +2497,10 @@
         <v>94</v>
       </c>
       <c r="C91">
-        <v>3.5</v>
+        <v>2.8</v>
       </c>
       <c r="D91" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E91" t="s">
         <v>157</v>
@@ -2514,10 +2514,10 @@
         <v>95</v>
       </c>
       <c r="C92">
-        <v>4.3</v>
+        <v>3.8</v>
       </c>
       <c r="D92" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="E92" t="s">
         <v>191</v>
@@ -2531,10 +2531,10 @@
         <v>96</v>
       </c>
       <c r="C93">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="D93" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E93" t="s">
         <v>192</v>
@@ -2548,10 +2548,10 @@
         <v>97</v>
       </c>
       <c r="C94">
-        <v>3.2</v>
+        <v>4.5</v>
       </c>
       <c r="D94" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="E94" t="s">
         <v>193</v>
@@ -2565,7 +2565,7 @@
         <v>98</v>
       </c>
       <c r="C95">
-        <v>4.7</v>
+        <v>4.4</v>
       </c>
       <c r="D95" t="s">
         <v>117</v>
@@ -2582,7 +2582,7 @@
         <v>99</v>
       </c>
       <c r="C96">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="D96" t="s">
         <v>117</v>
@@ -2616,7 +2616,7 @@
         <v>101</v>
       </c>
       <c r="C98">
-        <v>4.7</v>
+        <v>4.3</v>
       </c>
       <c r="D98" t="s">
         <v>118</v>
@@ -2650,7 +2650,7 @@
         <v>103</v>
       </c>
       <c r="C100">
-        <v>4.6</v>
+        <v>4.3</v>
       </c>
       <c r="D100" t="s">
         <v>120</v>
@@ -2667,7 +2667,7 @@
         <v>104</v>
       </c>
       <c r="C101">
-        <v>3.6</v>
+        <v>4.6</v>
       </c>
       <c r="D101" t="s">
         <v>120</v>
